--- a/TestApp/oids.xlsx
+++ b/TestApp/oids.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rp_to\source\repos\pem-utils\TestApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AB78E1-B6F9-48F6-A5B6-061E6AD5F566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36DDFD2-FB8C-4796-BD3B-EC3A45E86ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{C4204FCE-6901-4ACB-95BB-8696856B81A8}"/>
+    <workbookView xWindow="-22935" yWindow="2940" windowWidth="17280" windowHeight="6690" xr2:uid="{C4204FCE-6901-4ACB-95BB-8696856B81A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>oic</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>short</t>
   </si>
@@ -76,6 +74,33 @@
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t>RFC7518</t>
+  </si>
+  <si>
+    <t>RS256</t>
+  </si>
+  <si>
+    <t>oid</t>
+  </si>
+  <si>
+    <t>ES256</t>
+  </si>
+  <si>
+    <t>ECDSA with P256 &amp; SHA256</t>
+  </si>
+  <si>
+    <t>ES384</t>
+  </si>
+  <si>
+    <t>ES512</t>
+  </si>
+  <si>
+    <t>1.2.840.113549.1.1.1</t>
+  </si>
+  <si>
+    <t>RSA</t>
   </si>
 </sst>
 </file>
@@ -435,89 +460,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8C526C-970C-4B6C-A560-3904C22A561E}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.1328125" customWidth="1"/>
-    <col min="2" max="2" width="35.1328125" customWidth="1"/>
-    <col min="3" max="3" width="40.796875" customWidth="1"/>
-    <col min="4" max="4" width="41.265625" customWidth="1"/>
+    <col min="1" max="2" width="28.1328125" customWidth="1"/>
+    <col min="3" max="3" width="35.1328125" customWidth="1"/>
+    <col min="4" max="4" width="40.796875" customWidth="1"/>
+    <col min="5" max="5" width="41.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
